--- a/biology/Microbiologie/Tokophryidae/Tokophryidae.xlsx
+++ b/biology/Microbiologie/Tokophryidae/Tokophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tokophryidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Tokophrya, dérivé du grec ancien τόκος / tókos, « naissance, progéniture », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié susceptible d'engendrer une progéniture ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Tokophryidae sont de taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leurs trophontes, de longueur variable, sont de forme ovoïde, cylindrique ou triangulaire, souvent aplatis latéralement ; ils n’ont pas de lorique, sont pédonculés. Leurs tentacules sont capités, généralement groupées en deux fascicules, rarement plus. Les essaims sont ovoïdes, à cinéties somatiques (rangées de cils sur le corps cellulaire) obliques ; le macronoyau est de forme variable : de globuleuse à rubanée. On y observe un micronoyau et des vacuoles contractiles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Tokophryidae sont de taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leurs trophontes, de longueur variable, sont de forme ovoïde, cylindrique ou triangulaire, souvent aplatis latéralement ; ils n’ont pas de lorique, sont pédonculés. Leurs tentacules sont capités, généralement groupées en deux fascicules, rarement plus. Les essaims sont ovoïdes, à cinéties somatiques (rangées de cils sur le corps cellulaire) obliques ; le macronoyau est de forme variable : de globuleuse à rubanée. On y observe un micronoyau et des vacuoles contractiles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Tokophryidae vivent aussi bien en milieu marin qu’en eau douce, à la fois librement mais aussi comme ectocommensaux sur des crustacés copépodes ou amphipodes, et même sur d'autres ciliés (par exemple, la tige des péritriches)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Tokophryidae vivent aussi bien en milieu marin qu’en eau douce, à la fois librement mais aussi comme ectocommensaux sur des crustacés copépodes ou amphipodes, et même sur d'autres ciliés (par exemple, la tige des péritriches).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er juin 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er juin 2023) :
 Baikalodendron Swarczewsky, 1928
 Baikalophrya Swarczewsky, 1928
 Brachyosoma Batisse, 1975
@@ -616,7 +636,7 @@
 Pelagacineta Jankowski, 1978
 Tokophryella Jankowski, 1973
 Tokophryopsis Swarczewsky, 1928
-Selon Lynn (2008)[1].
+Selon Lynn (2008).
 Lecanodiscus Jankowski, 1973
 Listarcon Jankowski, 1982
 Parastylophrya Jankowski, 1978
@@ -660,9 +680,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Tokophryidae Jankowksi in Small &amp; Lynn, 1985[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Tokophryidae Jankowksi in Small &amp; Lynn, 1985.
 </t>
         </is>
       </c>
